--- a/Output/future_book.xlsx
+++ b/Output/future_book.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -446,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,120 +434,120 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>Year</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
       </c>
       <c r="D1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>2024</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
@@ -627,59 +606,64 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="AB2" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="AC2" t="n">
         <v>0.36</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>0.2272727272727273</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>0.2962962962962963</v>
       </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
       <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.2790697674418605</v>
-      </c>
       <c r="D3" t="n">
-        <v>0.3191489361702128</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="F3" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.7916666666666666</v>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
@@ -717,103 +701,108 @@
         <v>1</v>
       </c>
       <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
         <v>0.9</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.65</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>0.375</v>
       </c>
-      <c r="X3" t="n">
-        <v>0.2352941176470588</v>
-      </c>
       <c r="Y3" t="n">
-        <v>0.2</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.5</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="AB3" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="AC3" t="n">
         <v>0.1666666666666667</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.0625</v>
       </c>
       <c r="AD3" t="n">
         <v>0.05882352941176471</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.36</v>
-      </c>
       <c r="D4" t="n">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.4</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="F4" t="n">
+        <v>0.3255813953488372</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.3877551020408163</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="H4" t="n">
+        <v>0.4871794871794872</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.3902439024390244</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.2195121951219512</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.3829787234042553</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.4615384615384616</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.4230769230769231</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>0.24</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>0.2173913043478261</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>0.25</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>0.3</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>0.2727272727272727</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.1818181818181818</v>
       </c>
       <c r="T4" t="n">
         <v>0.1818181818181818</v>
@@ -822,13 +811,13 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="W4" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="Y4" t="n">
         <v>0.2857142857142857</v>
@@ -840,49 +829,54 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AB4" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AC4" t="n">
         <v>0.3529411764705883</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>0.4705882352941176</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>0.25</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>0.125</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.1428571428571428</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2</v>
       </c>
       <c r="E5" t="n">
         <v>0.2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
         <v>0.1111111111111111</v>
       </c>
       <c r="H5" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="J5" t="n">
         <v>0.1666666666666667</v>
@@ -891,17 +885,17 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="L5" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.07142857142857142</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.1</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
@@ -915,62 +909,67 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0.1666666666666667</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>0.4</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>0.5</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>0.4</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.25</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -996,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0.5</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1044,31 +1043,36 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
       </c>
       <c r="AF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C7" t="n">
         <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3333333333333333</v>
       </c>
       <c r="D7" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1128,41 +1132,46 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>0.3846153846153846</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.1818181818181818</v>
       </c>
       <c r="AC7" t="n">
         <v>0.1818181818181818</v>
       </c>
       <c r="AD7" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AE7" t="n">
         <v>0.25</v>
       </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
       <c r="AF7" t="n">
         <v>0</v>
       </c>
       <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
@@ -1194,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0.5</v>
@@ -1203,14 +1212,14 @@
         <v>0.5</v>
       </c>
       <c r="Q8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.25</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
@@ -1251,17 +1260,22 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
@@ -1284,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1350,17 +1364,22 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
@@ -1368,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1377,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1386,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -1398,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1410,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>1</v>
@@ -1419,13 +1438,13 @@
         <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
         <v>1</v>
@@ -1440,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -1449,17 +1468,22 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C11" t="n">
         <v>11</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
@@ -1497,16 +1521,16 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>0.4</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>0.5</v>
       </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1548,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A11"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>